--- a/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
@@ -34,29 +34,16 @@
     <t>Practical</t>
   </si>
   <si>
-    <t>Lecture is an instructional method commonly used by facilitators to impart knowledge to their learners. A lecture is a prepared oral presentation on a given topic. Lectures comprise content delivery supported by examples to illustrate principles and concepts. The content is generally not lengthy and combines other presentation and application methods. The activities for the lecture include presentation, slideshow and note-taking. 
-Lecturing is an inevitable part of classroom learning. It allows the facilitator to deliver information to learners as planned. This gives excellent control over what is taught and lets the facilitator be the sole source of information to avoid confusion. 
-The facilitator can present the material during the lecture and answer learners' questions. Learners can receive, take in and respond. This enhances a well-organised pattern of ideas, enabling learners to better grasp the principles and concepts.</t>
-  </si>
-  <si>
-    <t>Didactic questioning can ensure learners follow the presentation and understand the concepts. 
-Didactic questioning follows a pre-determined set of questions to lead learners to certain realisations or conclusions or to help them meet a specific learning outcome.</t>
-  </si>
-  <si>
-    <t>Demonstration is an effective instructional method used by facilitators to show learners how to perform specific tasks or complete processes. It is a visual and hands-on approach that can teach various subjects and skills.
-The use of demonstration in teaching has several benefits, including:
-•	 It gives learners a clear and concrete example of performing a task or completing a process.
-•	 It allows learners to see the results of their work in real-time, which can be motivating and rewarding.
-•	 It encourages active participation and engagement from learners, which can help to improve learning outcomes.
-It helps learners to understand complex concepts and processes by breaking them down into smaller, more manageable steps.</t>
-  </si>
-  <si>
-    <t>Practical is an instructional method that allows learners to apply what they have learned in a real-world context, which can help reinforce their understanding of the material.
-The use of the practice in teaching has several benefits, including:
-•	 It can help to reinforce learning by providing learners with feedback on their performance and identifying areas where they need to improve.
-•	 It helps learners develop their skills and knowledge by providing opportunities to apply what they have learned in a real-world context.
-•	 It can help build learnersâ€™ confidence by allowing them to practice and refine their skills.
-•	 It can help to prepare learners for future challenges by providing them with the skills and knowledge they need to succeed.</t>
+    <t>Classroom-based instruction is appropriate as it provides a structured environment for delivering essential knowledge. The classroom setting allows for direct interaction between the facilitator and learners, enabling real-time clarification of concepts and immediate feedback, which is crucial for grasping the fundamentals.</t>
+  </si>
+  <si>
+    <t>Didactic questioning is employed to actively engage learners and assess their understanding throughout the course. By strategically posing questions, the facilitator can guide learners to discover key concepts and ensure they are following the material, which helps to solidify their comprehension.</t>
+  </si>
+  <si>
+    <t>Demonstration is crucial for illustrating the practical application of tools and processes. By observing the facilitator execute specific tasks, learners can visualize the steps involved and better understand how to apply the techniques in real-world scenarios. This hands-on approach facilitates a deeper understanding and skill development.</t>
+  </si>
+  <si>
+    <t>Practical exercises are essential to allow learners to apply the knowledge and skills. By engaging in hands-on activities, learners can reinforce their understanding, develop proficiency, and build confidence in their ability to effectively use these skills.</t>
   </si>
 </sst>
 </file>

--- a/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
+++ b/CourseProposal/json_output/instructional_methods_description_dataframe.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Interactive Presentation is an ideal instructional method for this course as it allows learners to engage actively with the content related to generative AI and storytelling. By incorporating interactive elements, such as real-time AI tool demonstrations and audience participation, learners can better understand complex concepts like AI-generated script ideation and ethical considerations. This method fosters an engaging learning environment where learners can ask questions and receive immediate feedback, enhancing their grasp of narrative structures and AI applications in media.</t>
+          <t>Interactive Presentation is an ideal instructional method for this course as it allows for dynamic engagement with the content related to storytelling and storyboarding using generative AI. This method enables the facilitator to present complex concepts such as AI-generated script ideation techniques and ethical considerations in a visually engaging manner. By incorporating multimedia elements and interactive components, learners can better grasp the narrative structures and creative storytelling principles essential for developing compelling script elements. This approach also encourages active participation, allowing learners to ask questions and engage in discussions, thereby enhancing their understanding of the material.</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brainstorming is particularly suitable for this course as it encourages creative thinking and collaboration among learners. When developing compelling script elements or identifying effective prompt terms for AI-generated storyboards, brainstorming sessions allow learners to explore diverse ideas and perspectives. This method supports the iterative process of refining AI-generated content by enabling learners to collectively generate innovative solutions and enhance their understanding of narrative components and visual storytelling techniques.</t>
+          <t>Brainstorming is a crucial instructional method for fostering creativity and innovation in the context of generative AI for storytelling and storyboarding. This method encourages learners to collaboratively generate ideas and explore various narrative components and prompt terms that can enhance AI-generated storyboards. By engaging in brainstorming sessions, learners can identify effective strategies for refining video scripts and developing unique story elements. This collaborative approach not only stimulates creative thinking but also helps learners to consider diverse perspectives, which is essential for creating inclusive and engaging narratives.</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Demonstration is a crucial instructional method for this course, as it provides learners with a visual and hands-on approach to understanding generative AI tools and techniques. By demonstrating how to use AI tools for script development, storyboarding, and video creation, learners can see the practical application of theoretical concepts. This method helps learners grasp complex processes, such as refining video scripts for clarity and tone, by breaking them down into manageable steps and showcasing real-time results, thereby enhancing their learning experience.</t>
+          <t>Demonstration is an effective instructional method for this course as it provides learners with a clear and concrete example of how to utilize generative AI tools for script and storyboard development. By visually showcasing the process of generating AI-driven story elements and refining video scripts, learners can better understand the practical application of AI techniques. This hands-on approach allows learners to see the results of their work in real-time, which can be motivating and rewarding. Demonstrations also help to break down complex processes into manageable steps, making it easier for learners to grasp the intricacies of AI-generated content creation.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Drill and Practice is an effective instructional method for reinforcing learners' understanding of AI-generated content and ethical considerations. By providing opportunities for learners to practice applying AI tools and techniques in a controlled environment, they can refine their skills and knowledge. This method helps learners build confidence in their ability to analyze AI outputs for bias and copyright risks, apply corrective actions, and develop best practices for ethical AI content generation. Through repeated practice, learners can better prepare for real-world challenges in media production.</t>
+          <t>Drill and Practice is an essential instructional method for reinforcing learners' understanding of generative AI tools and techniques. By providing opportunities for learners to repeatedly apply what they have learned, this method helps to solidify their skills in developing narrative structures and enhancing AI-generated storyboards. Through practice, learners can receive feedback on their performance, identify areas for improvement, and build confidence in their ability to create compelling and ethically sound AI-generated content. This method also prepares learners for future challenges by equipping them with the necessary skills and knowledge to succeed in the media industry.</t>
         </is>
       </c>
     </row>
